--- a/biology/Médecine/Veine_ovarique/Veine_ovarique.xlsx
+++ b/biology/Médecine/Veine_ovarique/Veine_ovarique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine ovarique transporte le sang désoxygéné des ovaires à la veine cave inférieure ou un de ses tributaires. C'est l'équivalent féminin des veines testiculaires et la contrepartie de l'artère ovarique.
 Ces veines sont au nombre de deux, chacune desservant un ovaire :  
@@ -514,7 +526,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thrombose de la veine ovarique peut être associée à une endométrite post-partum, à une maladie inflammatoire pelvienne, à une diverticulite du sigmoïde, à une appendicite ou à une chirurgie gynécologique.
 </t>
